--- a/Översikt HEDEMORA.xlsx
+++ b/Översikt HEDEMORA.xlsx
@@ -575,7 +575,7 @@
         <v>44302</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         <v>45180</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
         <v>45996</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>45239</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>45628</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1134,7 +1134,7 @@
         <v>46033</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1241,7 +1241,7 @@
         <v>45527.45107638889</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         <v>45616.57304398148</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1441,7 +1441,7 @@
         <v>44902</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>44502</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1645,7 +1645,7 @@
         <v>45887.29802083333</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         <v>45961.32736111111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>45919.71271990741</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>45527.44895833333</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         <v>45250</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>45595.49747685185</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>46033</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>45887.30237268518</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>45527.44613425926</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         <v>45527.45292824074</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2622,7 +2622,7 @@
         <v>44441</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2716,7 +2716,7 @@
         <v>45897</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2814,7 +2814,7 @@
         <v>44495</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>46051</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>45301</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3093,7 +3093,7 @@
         <v>44369</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>44489</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>44897</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3379,7 +3379,7 @@
         <v>46051</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3471,7 +3471,7 @@
         <v>44455</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>44502</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
         <v>46033</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>44579</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>44588</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3927,7 +3927,7 @@
         <v>44883</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>45912.36710648148</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>44582</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         <v>45429.29493055555</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>45912.37243055556</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>45252</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>45899.35592592593</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>45664.39991898148</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>45625</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>45670</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>46037.57337962963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>46029</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>46050</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>46033</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5214,7 +5214,7 @@
         <v>44441</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>44880.87587962963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5398,7 +5398,7 @@
         <v>44253</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         <v>44880.87695601852</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>44864</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>45565</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>45078</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>45889.63289351852</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
         <v>45818.39921296296</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>45642</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>45917.43056712963</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>45743.68125</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>45933.82043981482</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>45842</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>45743.70716435185</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         <v>45767.54942129629</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>45920.3734837963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6778,7 +6778,7 @@
         <v>45733</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>45008</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         <v>45899.35854166667</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>45171</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>44461</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>46036.43939814815</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7323,7 +7323,7 @@
         <v>46033</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>45275.32708333333</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7505,7 +7505,7 @@
         <v>45610.80650462963</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>46020</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>46020</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>46020</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7866,7 +7866,7 @@
         <v>45226</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7960,7 +7960,7 @@
         <v>45615</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>45757.69396990741</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8135,7 +8135,7 @@
         <v>44283</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8192,7 +8192,7 @@
         <v>44523.61842592592</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         <v>44565</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>44783.71745370371</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>44475.35819444444</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         <v>44315.4233912037</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>44462</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8544,7 +8544,7 @@
         <v>44846.33142361111</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8606,7 +8606,7 @@
         <v>44881.69982638889</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8668,7 +8668,7 @@
         <v>44466.33798611111</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8725,7 +8725,7 @@
         <v>44284.59565972222</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8782,7 +8782,7 @@
         <v>44802</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8839,7 +8839,7 @@
         <v>44868.54824074074</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
         <v>44529</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8958,7 +8958,7 @@
         <v>44698.52960648148</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9015,7 +9015,7 @@
         <v>44588</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>44868.5756712963</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>44817</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9201,7 +9201,7 @@
         <v>44442</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9258,7 +9258,7 @@
         <v>44491.53346064815</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9315,7 +9315,7 @@
         <v>44364.83538194445</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>44468</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>44466.44400462963</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44456</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>44574</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>44299</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>44741.68168981482</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>44462</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9796,7 +9796,7 @@
         <v>44805</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9853,7 +9853,7 @@
         <v>44720</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>44502</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>44746</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>44393.52391203704</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>44434</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>44750.87045138889</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>44750.87366898148</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10277,7 +10277,7 @@
         <v>44523.6131712963</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>44859</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>44495</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10458,7 +10458,7 @@
         <v>44421.53498842593</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>44575.54618055555</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10572,7 +10572,7 @@
         <v>44945</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>45170</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>44455.77041666667</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>45459.62336805555</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>44628</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10867,7 +10867,7 @@
         <v>45022</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44438.71809027778</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>44900.53383101852</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>45175</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>44532.41442129629</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>44364.83369212963</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>45484.58222222222</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>45541.78678240741</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>45078.59590277778</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>44917.67262731482</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>45342.8779050926</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11524,7 +11524,7 @@
         <v>45558.52905092593</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>44956</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>44805.71435185185</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>45799.64574074074</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>45429.38474537037</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>45845</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
         <v>45805.51065972223</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>45743.59052083334</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>45070.39284722223</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>45569.48200231481</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12114,7 +12114,7 @@
         <v>45889.6240625</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>45701.53790509259</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12233,7 +12233,7 @@
         <v>45407.64223379629</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>45810.45325231482</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>45889.62287037037</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>45895.57958333333</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12471,7 +12471,7 @@
         <v>45895.58449074074</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12528,7 +12528,7 @@
         <v>45895.64342592593</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>45610.82546296297</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12652,7 +12652,7 @@
         <v>45770.88217592592</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>45770.88462962963</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12766,7 +12766,7 @@
         <v>45818.4021875</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         <v>45694.57893518519</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12885,7 +12885,7 @@
         <v>45429</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12942,7 +12942,7 @@
         <v>45818.39755787037</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13004,7 +13004,7 @@
         <v>45818.40069444444</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13066,7 +13066,7 @@
         <v>45076.73979166667</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>45218.38459490741</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>45230.50288194444</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>45230.53109953704</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>45708.67251157408</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>45099</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>45825.53508101852</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>45906.40199074074</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>44370.90546296296</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>45910.42417824074</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>45484.57728009259</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13713,7 +13713,7 @@
         <v>45831.42349537037</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13770,7 +13770,7 @@
         <v>45827.94671296296</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13827,7 +13827,7 @@
         <v>45827.94552083333</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13884,7 +13884,7 @@
         <v>44757.74415509259</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13946,7 +13946,7 @@
         <v>45918.44587962963</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14003,7 +14003,7 @@
         <v>45230.52603009259</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14060,7 +14060,7 @@
         <v>44501</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14117,7 +14117,7 @@
         <v>45216</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14174,7 +14174,7 @@
         <v>45924.27231481481</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14231,7 +14231,7 @@
         <v>45350.46259259259</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14288,7 +14288,7 @@
         <v>45924.26582175926</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14345,7 +14345,7 @@
         <v>45924.27704861111</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14402,7 +14402,7 @@
         <v>45925.38450231482</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14459,7 +14459,7 @@
         <v>45924.37988425926</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14516,7 +14516,7 @@
         <v>45839.58767361111</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14578,7 +14578,7 @@
         <v>45839.58927083333</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14640,7 +14640,7 @@
         <v>44792</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14697,7 +14697,7 @@
         <v>45932.71114583333</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14754,7 +14754,7 @@
         <v>45933.53237268519</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14811,7 +14811,7 @@
         <v>44438.72253472222</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14873,7 +14873,7 @@
         <v>45932.7075</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14930,7 +14930,7 @@
         <v>45527.45431712963</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14992,7 +14992,7 @@
         <v>45840</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15054,7 +15054,7 @@
         <v>45840.81065972222</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>45105</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15178,7 +15178,7 @@
         <v>45940.69508101852</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15235,7 +15235,7 @@
         <v>45943.40377314815</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         <v>45943.40546296296</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15349,7 +15349,7 @@
         <v>45943.40084490741</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15406,7 +15406,7 @@
         <v>45943.53317129629</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15463,7 +15463,7 @@
         <v>45940.37288194444</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
         <v>45943.54636574074</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15582,7 +15582,7 @@
         <v>45943</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15639,7 +15639,7 @@
         <v>45940.36981481482</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15701,7 +15701,7 @@
         <v>45253.5053587963</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15758,7 +15758,7 @@
         <v>45316</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15815,7 +15815,7 @@
         <v>45484.5799537037</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15877,7 +15877,7 @@
         <v>45848</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15934,7 +15934,7 @@
         <v>45951.40246527778</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15991,7 +15991,7 @@
         <v>45852.56914351852</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16048,7 +16048,7 @@
         <v>45951.54824074074</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
         <v>45230</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16162,7 +16162,7 @@
         <v>45260.64891203704</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         <v>44348.64942129629</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16281,7 +16281,7 @@
         <v>45743.69820601852</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16343,7 +16343,7 @@
         <v>45743.70199074074</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16405,7 +16405,7 @@
         <v>45630.77605324074</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16462,7 +16462,7 @@
         <v>45866.43974537037</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16519,7 +16519,7 @@
         <v>45953.67157407408</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16581,7 +16581,7 @@
         <v>45866.55335648148</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16638,7 +16638,7 @@
         <v>45953</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16700,7 +16700,7 @@
         <v>45866.58664351852</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16762,7 +16762,7 @@
         <v>45952</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16819,7 +16819,7 @@
         <v>45867.45057870371</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         <v>45953.65537037037</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16938,7 +16938,7 @@
         <v>45953.67032407408</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17000,7 +17000,7 @@
         <v>45957.39364583333</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17057,7 +17057,7 @@
         <v>45957.49408564815</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17114,7 +17114,7 @@
         <v>45873.34642361111</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17171,7 +17171,7 @@
         <v>45205.53241898148</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17253,7 +17253,7 @@
         <v>45773.71568287037</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17315,7 +17315,7 @@
         <v>45773.71921296296</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>45821.60116898148</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17439,7 +17439,7 @@
         <v>45825.66416666667</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17501,7 +17501,7 @@
         <v>45287</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17558,7 +17558,7 @@
         <v>45958.35328703704</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>45958.35527777778</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>45958.35663194444</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
         <v>45960.3875</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17801,7 +17801,7 @@
         <v>45784</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>45963.74130787037</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         <v>45623.48604166666</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>45770</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18034,7 +18034,7 @@
         <v>44783.68931712963</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         <v>44914.37917824074</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18148,7 +18148,7 @@
         <v>45840.81216435185</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>45792.37162037037</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18272,7 +18272,7 @@
         <v>45784.37449074074</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18334,7 +18334,7 @@
         <v>45784</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18396,7 +18396,7 @@
         <v>45469.50783564815</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18453,7 +18453,7 @@
         <v>45966.67506944444</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18510,7 +18510,7 @@
         <v>45966.67681712963</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18567,7 +18567,7 @@
         <v>45933</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18624,7 +18624,7 @@
         <v>45968.46832175926</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18681,7 +18681,7 @@
         <v>45840</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18743,7 +18743,7 @@
         <v>45889.62181712963</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18805,7 +18805,7 @@
         <v>45566.82304398148</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18867,7 +18867,7 @@
         <v>45566.82385416667</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18929,7 +18929,7 @@
         <v>45505.37086805556</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18986,7 +18986,7 @@
         <v>45973.41158564815</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19043,7 +19043,7 @@
         <v>45971.78122685185</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19100,7 +19100,7 @@
         <v>45971.79564814815</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19157,7 +19157,7 @@
         <v>45538.56925925926</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19214,7 +19214,7 @@
         <v>45973.65067129629</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>45974.70207175926</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19333,7 +19333,7 @@
         <v>45975.7162962963</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19390,7 +19390,7 @@
         <v>45484.69837962963</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19452,7 +19452,7 @@
         <v>45534.61327546297</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19514,7 +19514,7 @@
         <v>45729.39300925926</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19571,7 +19571,7 @@
         <v>45975.78238425926</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19628,7 +19628,7 @@
         <v>45436</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19685,7 +19685,7 @@
         <v>44235</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19742,7 +19742,7 @@
         <v>45980.70671296296</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19804,7 +19804,7 @@
         <v>45626.41185185185</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19866,7 +19866,7 @@
         <v>46021.56877314814</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19923,7 +19923,7 @@
         <v>45463.66436342592</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19985,7 +19985,7 @@
         <v>45743.5745949074</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20042,7 +20042,7 @@
         <v>45982.47819444445</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20099,7 +20099,7 @@
         <v>45729.38878472222</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20156,7 +20156,7 @@
         <v>46021.50405092593</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20213,7 +20213,7 @@
         <v>45644.61251157407</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20270,7 +20270,7 @@
         <v>45986.60056712963</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20327,7 +20327,7 @@
         <v>45583.58040509259</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20384,7 +20384,7 @@
         <v>45576.51962962963</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20441,7 +20441,7 @@
         <v>45441.57538194444</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20498,7 +20498,7 @@
         <v>45880.37949074074</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20560,7 +20560,7 @@
         <v>45172</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20622,7 +20622,7 @@
         <v>45880.37711805556</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20684,7 +20684,7 @@
         <v>44472.54035879629</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20746,7 +20746,7 @@
         <v>46030.44930555556</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20803,7 +20803,7 @@
         <v>45989.40451388889</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20865,7 +20865,7 @@
         <v>45190</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20927,7 +20927,7 @@
         <v>45988.77284722222</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20989,7 +20989,7 @@
         <v>46020</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21046,7 +21046,7 @@
         <v>46034</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>46034.61717592592</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>45992.31405092592</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21237,7 +21237,7 @@
         <v>46020</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21294,7 +21294,7 @@
         <v>44662.84958333334</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21356,7 +21356,7 @@
         <v>45061</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21418,7 +21418,7 @@
         <v>45992.31182870371</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         <v>46035.77204861111</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21532,7 +21532,7 @@
         <v>46034.41488425926</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21589,7 +21589,7 @@
         <v>46020</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21646,7 +21646,7 @@
         <v>45702.41383101852</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21703,7 +21703,7 @@
         <v>45995.4909837963</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21765,7 +21765,7 @@
         <v>45230.49392361111</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21822,7 +21822,7 @@
         <v>45610.8215625</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>46036.43230324074</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21946,7 +21946,7 @@
         <v>45756.45504629629</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22003,7 +22003,7 @@
         <v>44817</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22065,7 +22065,7 @@
         <v>45278.60274305556</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22122,7 +22122,7 @@
         <v>46024</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22179,7 +22179,7 @@
         <v>45233.41666666666</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22236,7 +22236,7 @@
         <v>45268</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         <v>45268</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22350,7 +22350,7 @@
         <v>45070</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22407,7 +22407,7 @@
         <v>46000.50141203704</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>46042.36462962963</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22526,7 +22526,7 @@
         <v>46042.37716435185</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22583,7 +22583,7 @@
         <v>46043.55357638889</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22640,7 +22640,7 @@
         <v>45999.52246527778</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22697,7 +22697,7 @@
         <v>44455</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22754,7 +22754,7 @@
         <v>45463.66520833333</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22816,7 +22816,7 @@
         <v>46030</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22873,7 +22873,7 @@
         <v>46042.41484953704</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22930,7 +22930,7 @@
         <v>46042.41993055555</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         <v>46035</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23044,7 +23044,7 @@
         <v>46031</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23101,7 +23101,7 @@
         <v>46042.40212962963</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23158,7 +23158,7 @@
         <v>45763</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23215,7 +23215,7 @@
         <v>46044.5272800926</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23272,7 +23272,7 @@
         <v>46035.54915509259</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23329,7 +23329,7 @@
         <v>45469.48282407408</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23406,7 +23406,7 @@
         <v>46044.55276620371</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23463,7 +23463,7 @@
         <v>45170.62489583333</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>46007.43217592593</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>45615.78459490741</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23644,7 +23644,7 @@
         <v>45919.38918981481</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23706,7 +23706,7 @@
         <v>46049.80768518519</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23763,7 +23763,7 @@
         <v>46049.81304398148</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23820,7 +23820,7 @@
         <v>46048.58114583333</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23877,7 +23877,7 @@
         <v>45905.54068287037</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23939,7 +23939,7 @@
         <v>46051.47321759259</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23996,7 +23996,7 @@
         <v>46051.37861111111</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24053,7 +24053,7 @@
         <v>46051.38310185185</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24110,7 +24110,7 @@
         <v>46027</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24167,7 +24167,7 @@
         <v>46051.66436342592</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24224,7 +24224,7 @@
         <v>46048</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24281,7 +24281,7 @@
         <v>46021</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24338,7 +24338,7 @@
         <v>46033</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24395,7 +24395,7 @@
         <v>46020</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24452,7 +24452,7 @@
         <v>46051.38346064815</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24509,7 +24509,7 @@
         <v>45429.29666666667</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         <v>46020</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24628,7 +24628,7 @@
         <v>45474.73221064815</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>46050.37637731482</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24747,7 +24747,7 @@
         <v>45474.73076388889</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24809,7 +24809,7 @@
         <v>45540</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24871,7 +24871,7 @@
         <v>46032.77636574074</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24928,7 +24928,7 @@
         <v>46033.23923611111</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24985,7 +24985,7 @@
         <v>46055.63866898148</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25047,7 +25047,7 @@
         <v>46055.63486111111</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25109,7 +25109,7 @@
         <v>46055.63663194444</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25171,7 +25171,7 @@
         <v>46055.59828703704</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25248,7 +25248,7 @@
         <v>46055.631875</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25310,7 +25310,7 @@
         <v>45086</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         <v>46056.59987268518</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25429,7 +25429,7 @@
         <v>46050</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25486,7 +25486,7 @@
         <v>46056.6309375</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25543,7 +25543,7 @@
         <v>45617.3434837963</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25605,7 +25605,7 @@
         <v>45932.37429398148</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25662,7 +25662,7 @@
         <v>45933.81800925926</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25724,7 +25724,7 @@
         <v>45920.37158564815</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25786,7 +25786,7 @@
         <v>45610.82664351852</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25848,7 +25848,7 @@
         <v>45254</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25905,7 +25905,7 @@
         <v>45541</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25967,7 +25967,7 @@
         <v>46044</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26024,7 +26024,7 @@
         <v>45350.46003472222</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26081,7 +26081,7 @@
         <v>44546</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26138,7 +26138,7 @@
         <v>44462</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26200,7 +26200,7 @@
         <v>46058.45313657408</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26257,7 +26257,7 @@
         <v>46058.49344907407</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26314,7 +26314,7 @@
         <v>44917</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26371,7 +26371,7 @@
         <v>45644.59017361111</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26433,7 +26433,7 @@
         <v>45104</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26495,7 +26495,7 @@
         <v>45086</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26557,7 +26557,7 @@
         <v>44917.67582175926</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26614,7 +26614,7 @@
         <v>45763</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26671,7 +26671,7 @@
         <v>45267</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26728,7 +26728,7 @@
         <v>44574</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26790,7 +26790,7 @@
         <v>45509.60949074074</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26847,7 +26847,7 @@
         <v>45469.51145833333</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26904,7 +26904,7 @@
         <v>45743.57695601852</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26961,7 +26961,7 @@
         <v>45296</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27018,7 +27018,7 @@
         <v>44358</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27075,7 +27075,7 @@
         <v>45163.61209490741</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27137,7 +27137,7 @@
         <v>45163.61413194444</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27199,7 +27199,7 @@
         <v>45239</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27261,7 +27261,7 @@
         <v>45748.85107638889</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27318,7 +27318,7 @@
         <v>44918.5633912037</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27375,7 +27375,7 @@
         <v>45105</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27437,7 +27437,7 @@
         <v>44306.4405787037</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27494,7 +27494,7 @@
         <v>45615.79806712963</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27556,7 +27556,7 @@
         <v>44680.47903935185</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27613,7 +27613,7 @@
         <v>45573.67782407408</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27675,7 +27675,7 @@
         <v>45573.68875</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27737,7 +27737,7 @@
         <v>45551</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27799,7 +27799,7 @@
         <v>45551</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27861,7 +27861,7 @@
         <v>45551</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27923,7 +27923,7 @@
         <v>44575</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27980,7 +27980,7 @@
         <v>45757.71063657408</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28037,7 +28037,7 @@
         <v>44733</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28094,7 +28094,7 @@
         <v>44911.41222222222</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28151,7 +28151,7 @@
         <v>45278</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28208,7 +28208,7 @@
         <v>44495</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28265,7 +28265,7 @@
         <v>44961</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28322,7 +28322,7 @@
         <v>45268</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28379,7 +28379,7 @@
         <v>45590.4999537037</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28441,7 +28441,7 @@
         <v>45252.42115740741</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28498,7 +28498,7 @@
         <v>45771.72665509259</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28555,7 +28555,7 @@
         <v>44509.6580787037</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28612,7 +28612,7 @@
         <v>45773.71663194444</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28674,7 +28674,7 @@
         <v>45358</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28731,7 +28731,7 @@
         <v>45239</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28793,7 +28793,7 @@
         <v>45771.73082175926</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28850,7 +28850,7 @@
         <v>45442.60204861111</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28907,7 +28907,7 @@
         <v>45757</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28964,7 +28964,7 @@
         <v>45541.79369212963</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         <v>45771.72193287037</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29083,7 +29083,7 @@
         <v>45478.641875</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29145,7 +29145,7 @@
         <v>45436</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29202,7 +29202,7 @@
         <v>45701.64659722222</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29259,7 +29259,7 @@
         <v>45590.50111111111</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29321,7 +29321,7 @@
         <v>44909.58811342593</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29378,7 +29378,7 @@
         <v>44279.50208333333</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29435,7 +29435,7 @@
         <v>44726</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29492,7 +29492,7 @@
         <v>45194.63086805555</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29549,7 +29549,7 @@
         <v>44450.84762731481</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29606,7 +29606,7 @@
         <v>45173.42707175926</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29668,7 +29668,7 @@
         <v>45055</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29730,7 +29730,7 @@
         <v>44529</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29787,7 +29787,7 @@
         <v>45113.45597222223</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29849,7 +29849,7 @@
         <v>45777.45135416667</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29911,7 +29911,7 @@
         <v>45111.54344907407</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29973,7 +29973,7 @@
         <v>45278.61277777778</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30030,7 +30030,7 @@
         <v>45590</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30087,7 +30087,7 @@
         <v>45187</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30149,7 +30149,7 @@
         <v>45337</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30206,7 +30206,7 @@
         <v>45603.68902777778</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30263,7 +30263,7 @@
         <v>45771</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30320,7 +30320,7 @@
         <v>45462</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>

--- a/Översikt HEDEMORA.xlsx
+++ b/Översikt HEDEMORA.xlsx
@@ -575,7 +575,7 @@
         <v>44302</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         <v>45180</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
         <v>45996</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>45239</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>45628</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1134,7 +1134,7 @@
         <v>46033</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1241,7 +1241,7 @@
         <v>45527.45107638889</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         <v>45616.57304398148</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1441,7 +1441,7 @@
         <v>44902</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>44502</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1645,7 +1645,7 @@
         <v>45887.29802083333</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         <v>45961.32736111111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>45919.71271990741</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>45527.44895833333</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         <v>45250</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>45595.49747685185</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>46033</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>45887.30237268518</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>45527.44613425926</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         <v>45527.45292824074</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2622,7 +2622,7 @@
         <v>44441</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2716,7 +2716,7 @@
         <v>45897</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2814,7 +2814,7 @@
         <v>44495</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>46051</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>45301</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3093,7 +3093,7 @@
         <v>44369</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>44489</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>44897</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3379,7 +3379,7 @@
         <v>46051</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3471,7 +3471,7 @@
         <v>44455</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>44502</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
         <v>46033</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>44579</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>44588</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3927,7 +3927,7 @@
         <v>44883</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>45912.36710648148</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>44582</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         <v>45429.29493055555</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>45912.37243055556</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>45252</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>45899.35592592593</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>45664.39991898148</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>45625</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>45670</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>46037.57337962963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>46029</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>46050</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>46033</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5214,7 +5214,7 @@
         <v>44441</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>44880.87587962963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5398,7 +5398,7 @@
         <v>44253</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         <v>44880.87695601852</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>44864</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>45565</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>45078</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>45889.63289351852</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
         <v>45818.39921296296</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>45642</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>45917.43056712963</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>45743.68125</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>45933.82043981482</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>45842</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>45743.70716435185</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         <v>45767.54942129629</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>45920.3734837963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6778,7 +6778,7 @@
         <v>45733</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>45008</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         <v>45899.35854166667</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>45171</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>44461</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>46036.43939814815</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7323,7 +7323,7 @@
         <v>46033</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>45275.32708333333</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7505,7 +7505,7 @@
         <v>45610.80650462963</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>46020</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>46020</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>46020</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7866,7 +7866,7 @@
         <v>45226</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7960,7 +7960,7 @@
         <v>45615</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>45757.69396990741</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8135,7 +8135,7 @@
         <v>44283</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8192,7 +8192,7 @@
         <v>44523.61842592592</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         <v>44565</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>44783.71745370371</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>44475.35819444444</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         <v>44315.4233912037</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>44462</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8544,7 +8544,7 @@
         <v>44846.33142361111</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8606,7 +8606,7 @@
         <v>44881.69982638889</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8668,7 +8668,7 @@
         <v>44466.33798611111</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8725,7 +8725,7 @@
         <v>44284.59565972222</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8782,7 +8782,7 @@
         <v>44802</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8839,7 +8839,7 @@
         <v>44868.54824074074</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
         <v>44529</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8958,7 +8958,7 @@
         <v>44698.52960648148</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9015,7 +9015,7 @@
         <v>44588</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>44868.5756712963</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>44817</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9201,7 +9201,7 @@
         <v>44442</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9258,7 +9258,7 @@
         <v>44491.53346064815</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9315,7 +9315,7 @@
         <v>44364.83538194445</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>44468</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>44466.44400462963</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44456</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>44574</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>44299</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>44741.68168981482</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>44462</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9796,7 +9796,7 @@
         <v>44805</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9853,7 +9853,7 @@
         <v>44720</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>44502</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>44746</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>44393.52391203704</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>44434</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>44750.87045138889</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>44750.87366898148</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10277,7 +10277,7 @@
         <v>44523.6131712963</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>44859</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>44495</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10458,7 +10458,7 @@
         <v>44421.53498842593</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>44575.54618055555</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10572,7 +10572,7 @@
         <v>44945</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>45170</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>44455.77041666667</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>45459.62336805555</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>44628</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10867,7 +10867,7 @@
         <v>45022</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44438.71809027778</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>44900.53383101852</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>45175</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>44532.41442129629</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>44364.83369212963</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>45484.58222222222</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>45541.78678240741</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>45078.59590277778</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>44917.67262731482</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>45342.8779050926</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11524,7 +11524,7 @@
         <v>45558.52905092593</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>44956</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>44805.71435185185</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>45799.64574074074</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>45429.38474537037</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>45845</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
         <v>45805.51065972223</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>45743.59052083334</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>45070.39284722223</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>45569.48200231481</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12114,7 +12114,7 @@
         <v>45889.6240625</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>45701.53790509259</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12233,7 +12233,7 @@
         <v>45407.64223379629</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>45810.45325231482</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>45889.62287037037</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>45895.57958333333</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12471,7 +12471,7 @@
         <v>45895.58449074074</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12528,7 +12528,7 @@
         <v>45895.64342592593</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>45610.82546296297</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12652,7 +12652,7 @@
         <v>45770.88217592592</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>45770.88462962963</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12766,7 +12766,7 @@
         <v>45818.4021875</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         <v>45694.57893518519</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12885,7 +12885,7 @@
         <v>45429</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12942,7 +12942,7 @@
         <v>45818.39755787037</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13004,7 +13004,7 @@
         <v>45818.40069444444</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13066,7 +13066,7 @@
         <v>45076.73979166667</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>45218.38459490741</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>45230.50288194444</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>45230.53109953704</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>45708.67251157408</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>45099</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>45825.53508101852</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>45906.40199074074</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>44370.90546296296</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>45910.42417824074</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>45484.57728009259</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13713,7 +13713,7 @@
         <v>45831.42349537037</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13770,7 +13770,7 @@
         <v>45827.94671296296</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13827,7 +13827,7 @@
         <v>45827.94552083333</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13884,7 +13884,7 @@
         <v>44757.74415509259</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13946,7 +13946,7 @@
         <v>45918.44587962963</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14003,7 +14003,7 @@
         <v>45230.52603009259</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14060,7 +14060,7 @@
         <v>44501</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14117,7 +14117,7 @@
         <v>45216</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14174,7 +14174,7 @@
         <v>45924.27231481481</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14231,7 +14231,7 @@
         <v>45350.46259259259</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14288,7 +14288,7 @@
         <v>45924.26582175926</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14345,7 +14345,7 @@
         <v>45924.27704861111</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14402,7 +14402,7 @@
         <v>45925.38450231482</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14459,7 +14459,7 @@
         <v>45924.37988425926</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14516,7 +14516,7 @@
         <v>45839.58767361111</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14578,7 +14578,7 @@
         <v>45839.58927083333</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14640,7 +14640,7 @@
         <v>44792</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14697,7 +14697,7 @@
         <v>45932.71114583333</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14754,7 +14754,7 @@
         <v>45933.53237268519</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14811,7 +14811,7 @@
         <v>44438.72253472222</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14873,7 +14873,7 @@
         <v>45932.7075</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14930,7 +14930,7 @@
         <v>45527.45431712963</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14992,7 +14992,7 @@
         <v>45840</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15054,7 +15054,7 @@
         <v>45840.81065972222</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>45105</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15178,7 +15178,7 @@
         <v>45940.69508101852</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15235,7 +15235,7 @@
         <v>45943.40377314815</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         <v>45943.40546296296</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15349,7 +15349,7 @@
         <v>45943.40084490741</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15406,7 +15406,7 @@
         <v>45943.53317129629</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15463,7 +15463,7 @@
         <v>45940.37288194444</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
         <v>45943.54636574074</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15582,7 +15582,7 @@
         <v>45943</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15639,7 +15639,7 @@
         <v>45940.36981481482</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15701,7 +15701,7 @@
         <v>45253.5053587963</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15758,7 +15758,7 @@
         <v>45316</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15815,7 +15815,7 @@
         <v>45484.5799537037</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15877,7 +15877,7 @@
         <v>45848</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15934,7 +15934,7 @@
         <v>45951.40246527778</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15991,7 +15991,7 @@
         <v>45852.56914351852</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16048,7 +16048,7 @@
         <v>45951.54824074074</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
         <v>45230</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16162,7 +16162,7 @@
         <v>45260.64891203704</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         <v>44348.64942129629</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16281,7 +16281,7 @@
         <v>45743.69820601852</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16343,7 +16343,7 @@
         <v>45743.70199074074</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16405,7 +16405,7 @@
         <v>45630.77605324074</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16462,7 +16462,7 @@
         <v>45866.43974537037</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16519,7 +16519,7 @@
         <v>45953.67157407408</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16581,7 +16581,7 @@
         <v>45866.55335648148</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16638,7 +16638,7 @@
         <v>45953</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16700,7 +16700,7 @@
         <v>45866.58664351852</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16762,7 +16762,7 @@
         <v>45952</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16819,7 +16819,7 @@
         <v>45867.45057870371</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         <v>45953.65537037037</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16938,7 +16938,7 @@
         <v>45953.67032407408</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17000,7 +17000,7 @@
         <v>45957.39364583333</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17057,7 +17057,7 @@
         <v>45957.49408564815</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17114,7 +17114,7 @@
         <v>45873.34642361111</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17171,7 +17171,7 @@
         <v>45205.53241898148</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17253,7 +17253,7 @@
         <v>45773.71568287037</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17315,7 +17315,7 @@
         <v>45773.71921296296</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>45821.60116898148</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17439,7 +17439,7 @@
         <v>45825.66416666667</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17501,7 +17501,7 @@
         <v>45287</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17558,7 +17558,7 @@
         <v>45958.35328703704</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>45958.35527777778</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>45958.35663194444</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
         <v>45960.3875</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17801,7 +17801,7 @@
         <v>45784</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>45963.74130787037</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         <v>45623.48604166666</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>45770</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18034,7 +18034,7 @@
         <v>44783.68931712963</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         <v>44914.37917824074</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18148,7 +18148,7 @@
         <v>45840.81216435185</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>45792.37162037037</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18272,7 +18272,7 @@
         <v>45784.37449074074</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18334,7 +18334,7 @@
         <v>45784</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18396,7 +18396,7 @@
         <v>45469.50783564815</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18453,7 +18453,7 @@
         <v>45966.67506944444</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18510,7 +18510,7 @@
         <v>45966.67681712963</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18567,7 +18567,7 @@
         <v>45933</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18624,7 +18624,7 @@
         <v>45968.46832175926</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18681,7 +18681,7 @@
         <v>45840</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18743,7 +18743,7 @@
         <v>45889.62181712963</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18805,7 +18805,7 @@
         <v>45566.82304398148</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18867,7 +18867,7 @@
         <v>45566.82385416667</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18929,7 +18929,7 @@
         <v>45505.37086805556</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18986,7 +18986,7 @@
         <v>45973.41158564815</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19043,7 +19043,7 @@
         <v>45971.78122685185</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19100,7 +19100,7 @@
         <v>45971.79564814815</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19157,7 +19157,7 @@
         <v>45538.56925925926</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19214,7 +19214,7 @@
         <v>45973.65067129629</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>45974.70207175926</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19333,7 +19333,7 @@
         <v>45975.7162962963</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19390,7 +19390,7 @@
         <v>45484.69837962963</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19452,7 +19452,7 @@
         <v>45534.61327546297</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19514,7 +19514,7 @@
         <v>45729.39300925926</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19571,7 +19571,7 @@
         <v>45975.78238425926</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19628,7 +19628,7 @@
         <v>45436</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19685,7 +19685,7 @@
         <v>44235</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19742,7 +19742,7 @@
         <v>45980.70671296296</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19804,7 +19804,7 @@
         <v>45626.41185185185</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19866,7 +19866,7 @@
         <v>46021.56877314814</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19923,7 +19923,7 @@
         <v>45463.66436342592</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19985,7 +19985,7 @@
         <v>45743.5745949074</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20042,7 +20042,7 @@
         <v>45982.47819444445</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20099,7 +20099,7 @@
         <v>45729.38878472222</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20156,7 +20156,7 @@
         <v>46021.50405092593</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20213,7 +20213,7 @@
         <v>45644.61251157407</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20270,7 +20270,7 @@
         <v>45986.60056712963</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20327,7 +20327,7 @@
         <v>45583.58040509259</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20384,7 +20384,7 @@
         <v>45576.51962962963</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20441,7 +20441,7 @@
         <v>45441.57538194444</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20498,7 +20498,7 @@
         <v>45880.37949074074</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20560,7 +20560,7 @@
         <v>45172</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20622,7 +20622,7 @@
         <v>45880.37711805556</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20684,7 +20684,7 @@
         <v>44472.54035879629</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20746,7 +20746,7 @@
         <v>46030.44930555556</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20803,7 +20803,7 @@
         <v>45989.40451388889</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20865,7 +20865,7 @@
         <v>45190</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20927,7 +20927,7 @@
         <v>45988.77284722222</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20989,7 +20989,7 @@
         <v>46020</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21046,7 +21046,7 @@
         <v>46034</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>46034.61717592592</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>45992.31405092592</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21237,7 +21237,7 @@
         <v>46020</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21294,7 +21294,7 @@
         <v>44662.84958333334</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21356,7 +21356,7 @@
         <v>45061</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21418,7 +21418,7 @@
         <v>45992.31182870371</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         <v>46035.77204861111</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21532,7 +21532,7 @@
         <v>46034.41488425926</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21589,7 +21589,7 @@
         <v>46020</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21646,7 +21646,7 @@
         <v>45702.41383101852</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21703,7 +21703,7 @@
         <v>45995.4909837963</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21765,7 +21765,7 @@
         <v>45230.49392361111</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21822,7 +21822,7 @@
         <v>45610.8215625</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>46036.43230324074</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21946,7 +21946,7 @@
         <v>45756.45504629629</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22003,7 +22003,7 @@
         <v>44817</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22065,7 +22065,7 @@
         <v>45278.60274305556</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22122,7 +22122,7 @@
         <v>46024</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22179,7 +22179,7 @@
         <v>45233.41666666666</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22236,7 +22236,7 @@
         <v>45268</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         <v>45268</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22350,7 +22350,7 @@
         <v>45070</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22407,7 +22407,7 @@
         <v>46000.50141203704</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>46042.36462962963</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22526,7 +22526,7 @@
         <v>46042.37716435185</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22583,7 +22583,7 @@
         <v>46043.55357638889</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22640,7 +22640,7 @@
         <v>45999.52246527778</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22697,7 +22697,7 @@
         <v>44455</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22754,7 +22754,7 @@
         <v>45463.66520833333</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22816,7 +22816,7 @@
         <v>46030</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22873,7 +22873,7 @@
         <v>46042.41484953704</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22930,7 +22930,7 @@
         <v>46042.41993055555</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         <v>46035</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23044,7 +23044,7 @@
         <v>46031</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23101,7 +23101,7 @@
         <v>46042.40212962963</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23158,7 +23158,7 @@
         <v>45763</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23215,7 +23215,7 @@
         <v>46044.5272800926</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23272,7 +23272,7 @@
         <v>46035.54915509259</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23329,7 +23329,7 @@
         <v>45469.48282407408</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23406,7 +23406,7 @@
         <v>46044.55276620371</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23463,7 +23463,7 @@
         <v>45170.62489583333</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>46007.43217592593</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>45615.78459490741</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23644,7 +23644,7 @@
         <v>45919.38918981481</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23706,7 +23706,7 @@
         <v>46049.80768518519</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23763,7 +23763,7 @@
         <v>46049.81304398148</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23820,7 +23820,7 @@
         <v>46048.58114583333</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23877,7 +23877,7 @@
         <v>45905.54068287037</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23939,7 +23939,7 @@
         <v>46051.47321759259</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23996,7 +23996,7 @@
         <v>46051.37861111111</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24053,7 +24053,7 @@
         <v>46051.38310185185</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24110,7 +24110,7 @@
         <v>46027</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24167,7 +24167,7 @@
         <v>46051.66436342592</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24224,7 +24224,7 @@
         <v>46048</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24281,7 +24281,7 @@
         <v>46021</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24338,7 +24338,7 @@
         <v>46033</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24395,7 +24395,7 @@
         <v>46020</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24452,7 +24452,7 @@
         <v>46051.38346064815</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24509,7 +24509,7 @@
         <v>45429.29666666667</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         <v>46020</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24628,7 +24628,7 @@
         <v>45474.73221064815</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>46050.37637731482</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24747,7 +24747,7 @@
         <v>45474.73076388889</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24809,7 +24809,7 @@
         <v>45540</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24871,7 +24871,7 @@
         <v>46032.77636574074</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24928,7 +24928,7 @@
         <v>46033.23923611111</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24985,7 +24985,7 @@
         <v>46055.63866898148</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25047,7 +25047,7 @@
         <v>46055.63486111111</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25109,7 +25109,7 @@
         <v>46055.63663194444</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25171,7 +25171,7 @@
         <v>46055.59828703704</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25248,7 +25248,7 @@
         <v>46055.631875</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25310,7 +25310,7 @@
         <v>45086</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         <v>46056.59987268518</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25429,7 +25429,7 @@
         <v>46050</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25486,7 +25486,7 @@
         <v>46056.6309375</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25543,7 +25543,7 @@
         <v>45617.3434837963</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25605,7 +25605,7 @@
         <v>45932.37429398148</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25662,7 +25662,7 @@
         <v>45933.81800925926</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25724,7 +25724,7 @@
         <v>45920.37158564815</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25786,7 +25786,7 @@
         <v>45610.82664351852</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25848,7 +25848,7 @@
         <v>45254</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25905,7 +25905,7 @@
         <v>45541</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25967,7 +25967,7 @@
         <v>46044</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26024,7 +26024,7 @@
         <v>45350.46003472222</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26081,7 +26081,7 @@
         <v>44546</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26138,7 +26138,7 @@
         <v>44462</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26200,7 +26200,7 @@
         <v>46058.45313657408</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26257,7 +26257,7 @@
         <v>46058.49344907407</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26314,7 +26314,7 @@
         <v>44917</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26371,7 +26371,7 @@
         <v>45644.59017361111</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26433,7 +26433,7 @@
         <v>45104</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26495,7 +26495,7 @@
         <v>45086</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26557,7 +26557,7 @@
         <v>44917.67582175926</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26614,7 +26614,7 @@
         <v>45763</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26671,7 +26671,7 @@
         <v>45267</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26728,7 +26728,7 @@
         <v>44574</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26790,7 +26790,7 @@
         <v>45509.60949074074</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26847,7 +26847,7 @@
         <v>45469.51145833333</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26904,7 +26904,7 @@
         <v>45743.57695601852</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26961,7 +26961,7 @@
         <v>45296</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27018,7 +27018,7 @@
         <v>44358</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27075,7 +27075,7 @@
         <v>45163.61209490741</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27137,7 +27137,7 @@
         <v>45163.61413194444</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27199,7 +27199,7 @@
         <v>45239</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27261,7 +27261,7 @@
         <v>45748.85107638889</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27318,7 +27318,7 @@
         <v>44918.5633912037</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27375,7 +27375,7 @@
         <v>45105</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27437,7 +27437,7 @@
         <v>44306.4405787037</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27494,7 +27494,7 @@
         <v>45615.79806712963</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27556,7 +27556,7 @@
         <v>44680.47903935185</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27613,7 +27613,7 @@
         <v>45573.67782407408</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27675,7 +27675,7 @@
         <v>45573.68875</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27737,7 +27737,7 @@
         <v>45551</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27799,7 +27799,7 @@
         <v>45551</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27861,7 +27861,7 @@
         <v>45551</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27923,7 +27923,7 @@
         <v>44575</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27980,7 +27980,7 @@
         <v>45757.71063657408</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28037,7 +28037,7 @@
         <v>44733</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28094,7 +28094,7 @@
         <v>44911.41222222222</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28151,7 +28151,7 @@
         <v>45278</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28208,7 +28208,7 @@
         <v>44495</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28265,7 +28265,7 @@
         <v>44961</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28322,7 +28322,7 @@
         <v>45268</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28379,7 +28379,7 @@
         <v>45590.4999537037</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28441,7 +28441,7 @@
         <v>45252.42115740741</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28498,7 +28498,7 @@
         <v>45771.72665509259</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28555,7 +28555,7 @@
         <v>44509.6580787037</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28612,7 +28612,7 @@
         <v>45773.71663194444</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28674,7 +28674,7 @@
         <v>45358</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28731,7 +28731,7 @@
         <v>45239</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28793,7 +28793,7 @@
         <v>45771.73082175926</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28850,7 +28850,7 @@
         <v>45442.60204861111</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28907,7 +28907,7 @@
         <v>45757</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28964,7 +28964,7 @@
         <v>45541.79369212963</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         <v>45771.72193287037</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29083,7 +29083,7 @@
         <v>45478.641875</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29145,7 +29145,7 @@
         <v>45436</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29202,7 +29202,7 @@
         <v>45701.64659722222</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29259,7 +29259,7 @@
         <v>45590.50111111111</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29321,7 +29321,7 @@
         <v>44909.58811342593</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29378,7 +29378,7 @@
         <v>44279.50208333333</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29435,7 +29435,7 @@
         <v>44726</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29492,7 +29492,7 @@
         <v>45194.63086805555</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29549,7 +29549,7 @@
         <v>44450.84762731481</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29606,7 +29606,7 @@
         <v>45173.42707175926</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29668,7 +29668,7 @@
         <v>45055</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29730,7 +29730,7 @@
         <v>44529</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29787,7 +29787,7 @@
         <v>45113.45597222223</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29849,7 +29849,7 @@
         <v>45777.45135416667</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29911,7 +29911,7 @@
         <v>45111.54344907407</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29973,7 +29973,7 @@
         <v>45278.61277777778</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30030,7 +30030,7 @@
         <v>45590</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30087,7 +30087,7 @@
         <v>45187</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30149,7 +30149,7 @@
         <v>45337</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30206,7 +30206,7 @@
         <v>45603.68902777778</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30263,7 +30263,7 @@
         <v>45771</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30320,7 +30320,7 @@
         <v>45462</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>

--- a/Översikt HEDEMORA.xlsx
+++ b/Översikt HEDEMORA.xlsx
@@ -575,7 +575,7 @@
         <v>45996</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>45180</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>45239</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -903,7 +903,7 @@
         <v>45628</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         <v>46033</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>45527.45107638889</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1223,7 +1223,7 @@
         <v>45616.57304398148</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>44902</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>44502</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1526,7 +1526,7 @@
         <v>45887.29802083333</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1619,7 +1619,7 @@
         <v>45919.71271990741</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>45961.32736111111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>45527.44895833333</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>45250</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>45595.49747685185</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>46033</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>45887.30237268518</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         <v>45527.44613425926</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>45527.45292824074</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>44441</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>45897</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         <v>45301</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>46051</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>44495</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>44369</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>44489</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>46051</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
         <v>44455</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>44897</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>44502</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>44579</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>46033</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>44588</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>44883</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3903,7 +3903,7 @@
         <v>44582</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>45429.29493055555</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>45912.36710648148</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>45912.37243055556</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>45252</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>45821.60116898148</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         <v>45664.39991898148</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>45899.35592592593</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>45625</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>45670</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>46037.57337962963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>46050</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>44441</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         <v>46029</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>46033</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>44880.87587962963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         <v>44253</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>44880.87695601852</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>44864</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>45565</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5745,7 +5745,7 @@
         <v>45818.39921296296</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>45889.63289351852</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>45642</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>45917.43056712963</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>45743.68125</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6207,7 +6207,7 @@
         <v>45743.70716435185</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         <v>45767.54942129629</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>45825.66416666667</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6481,7 +6481,7 @@
         <v>45933.82043981482</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6579,7 +6579,7 @@
         <v>45842</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6669,7 +6669,7 @@
         <v>45008</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>45920.3734837963</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>45733</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
         <v>45171</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>44461</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>45899.35854166667</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>46036.43939814815</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>45275.32708333333</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>45610.80650462963</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>46020</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>46059</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>46020</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>46020</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7843,7 +7843,7 @@
         <v>46033</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         <v>45226</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>45615</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>45757.69396990741</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8205,7 +8205,7 @@
         <v>45078</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>44283</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>44523.61842592592</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>44565</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>44783.71745370371</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>44475.35819444444</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>44315.4233912037</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>44462</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8703,7 +8703,7 @@
         <v>44846.33142361111</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>44881.69982638889</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>44466.33798611111</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>44802</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>44868.54824074074</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9003,7 +9003,7 @@
         <v>44698.52960648148</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>44529</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>44284.59565972222</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>44588</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>44868.5756712963</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         <v>44817</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>44442</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>44491.53346064815</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
         <v>44364.83538194445</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>44468</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>44466.44400462963</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>44456</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>44574</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>44299</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>44741.68168981482</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>44462</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>44805</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10012,7 +10012,7 @@
         <v>44720</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>44502</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>44746</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>44393.52391203704</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>44434</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10312,7 +10312,7 @@
         <v>44750.87045138889</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10374,7 +10374,7 @@
         <v>44750.87366898148</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>44523.6131712963</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10498,7 +10498,7 @@
         <v>44859</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10560,7 +10560,7 @@
         <v>44495</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10617,7 +10617,7 @@
         <v>44421.53498842593</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10674,7 +10674,7 @@
         <v>44575.54618055555</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>44945</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>45170</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         <v>44455.77041666667</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>45459.62336805555</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>44628</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         <v>45022</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>44438.71809027778</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>45175</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>44364.83369212963</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>45484.58222222222</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11331,7 +11331,7 @@
         <v>44900.53383101852</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         <v>44532.41442129629</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>45541.78678240741</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>45078.59590277778</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>44917.67262731482</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>45558.52905092593</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         <v>45342.8779050926</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>44956</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>44805.71435185185</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11864,7 +11864,7 @@
         <v>45407.64223379629</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>45070.39284722223</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>45818.4021875</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12045,7 +12045,7 @@
         <v>45818.39755787037</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12107,7 +12107,7 @@
         <v>45818.40069444444</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
         <v>45610.82546296297</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12231,7 +12231,7 @@
         <v>45845</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>45694.57893518519</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>45429</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>45743.59052083334</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>45076.73979166667</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12526,7 +12526,7 @@
         <v>45218.38459490741</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12583,7 +12583,7 @@
         <v>45825.53508101852</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12640,7 +12640,7 @@
         <v>45889.6240625</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12702,7 +12702,7 @@
         <v>45230.50288194444</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12759,7 +12759,7 @@
         <v>45230.53109953704</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12816,7 +12816,7 @@
         <v>45889.62287037037</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>45708.67251157408</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>45099</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>45895.57958333333</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>45895.58449074074</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>45895.64342592593</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>45831.42349537037</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>45827.94671296296</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>45827.94552083333</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>45770.88217592592</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>45770.88462962963</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>44370.90546296296</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13515,7 +13515,7 @@
         <v>45484.57728009259</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>44757.74415509259</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13639,7 +13639,7 @@
         <v>45230.52603009259</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13696,7 +13696,7 @@
         <v>44501</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>45839.58767361111</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13815,7 +13815,7 @@
         <v>45839.58927083333</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13877,7 +13877,7 @@
         <v>45216</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13934,7 +13934,7 @@
         <v>45906.40199074074</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13996,7 +13996,7 @@
         <v>45350.46259259259</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14053,7 +14053,7 @@
         <v>45840</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14115,7 +14115,7 @@
         <v>45910.42417824074</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14172,7 +14172,7 @@
         <v>45840.81065972222</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
         <v>45848</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14291,7 +14291,7 @@
         <v>45852.56914351852</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14348,7 +14348,7 @@
         <v>45918.44587962963</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>44792</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14462,7 +14462,7 @@
         <v>45743.69820601852</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14524,7 +14524,7 @@
         <v>44438.72253472222</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14586,7 +14586,7 @@
         <v>45743.70199074074</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14648,7 +14648,7 @@
         <v>45527.45431712963</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>45924.27231481481</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>45924.26582175926</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14824,7 +14824,7 @@
         <v>45924.27704861111</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14881,7 +14881,7 @@
         <v>45866.43974537037</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14938,7 +14938,7 @@
         <v>45866.55335648148</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         <v>45925.38450231482</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15052,7 +15052,7 @@
         <v>45866.58664351852</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>45924.37988425926</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15171,7 +15171,7 @@
         <v>45867.45057870371</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15228,7 +15228,7 @@
         <v>45105</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>45873.34642361111</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>45773.71568287037</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>45253.5053587963</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>45773.71921296296</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>45316</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15585,7 +15585,7 @@
         <v>45484.5799537037</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15647,7 +15647,7 @@
         <v>45932.71114583333</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>45933.53237268519</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>45784</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>45770</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>45932.7075</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>45230</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>45784</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16056,7 +16056,7 @@
         <v>45260.64891203704</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16113,7 +16113,7 @@
         <v>44348.64942129629</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>45630.77605324074</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>45940.69508101852</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>45943.40546296296</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>45943.40084490741</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>45943.53317129629</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>45943.54636574074</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>45943</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>45534.61327546297</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>45205.53241898148</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>45287</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16775,7 +16775,7 @@
         <v>45951.40246527778</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16832,7 +16832,7 @@
         <v>45951.54824074074</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16889,7 +16889,7 @@
         <v>45623.48604166666</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         <v>45953.67157407408</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17008,7 +17008,7 @@
         <v>45953</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>44914.37917824074</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>45952</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>45953.65537037037</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>45953.67032407408</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17308,7 +17308,7 @@
         <v>45957.39364583333</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17365,7 +17365,7 @@
         <v>45469.50783564815</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17422,7 +17422,7 @@
         <v>45957.49408564815</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17479,7 +17479,7 @@
         <v>45958.35328703704</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17541,7 +17541,7 @@
         <v>45566.82304398148</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17603,7 +17603,7 @@
         <v>45566.82385416667</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17665,7 +17665,7 @@
         <v>45958.35527777778</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17727,7 +17727,7 @@
         <v>45505.37086805556</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17784,7 +17784,7 @@
         <v>45958.35663194444</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17846,7 +17846,7 @@
         <v>45538.56925925926</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>45960.3875</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>45484.69837962963</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>45963.74130787037</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>44783.68931712963</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>45729.39300925926</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>45840.81216435185</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18255,7 +18255,7 @@
         <v>45792.37162037037</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18317,7 +18317,7 @@
         <v>45784.37449074074</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         <v>45436</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18436,7 +18436,7 @@
         <v>45966.67506944444</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18493,7 +18493,7 @@
         <v>45966.67681712963</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18550,7 +18550,7 @@
         <v>45933</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18607,7 +18607,7 @@
         <v>45968.46832175926</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18664,7 +18664,7 @@
         <v>45840</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18726,7 +18726,7 @@
         <v>45889.62181712963</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18788,7 +18788,7 @@
         <v>45626.41185185185</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18850,7 +18850,7 @@
         <v>45973.41158564815</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18907,7 +18907,7 @@
         <v>45463.66436342592</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18969,7 +18969,7 @@
         <v>45743.5745949074</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         <v>45971.78122685185</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19083,7 +19083,7 @@
         <v>45971.79564814815</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19140,7 +19140,7 @@
         <v>45729.38878472222</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19197,7 +19197,7 @@
         <v>45973.65067129629</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19259,7 +19259,7 @@
         <v>45974.70207175926</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19316,7 +19316,7 @@
         <v>45583.58040509259</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19373,7 +19373,7 @@
         <v>45975.7162962963</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19430,7 +19430,7 @@
         <v>45576.51962962963</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19487,7 +19487,7 @@
         <v>45441.57538194444</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19544,7 +19544,7 @@
         <v>45975.78238425926</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19601,7 +19601,7 @@
         <v>45980.70671296296</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19663,7 +19663,7 @@
         <v>45172</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19725,7 +19725,7 @@
         <v>44472.54035879629</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19787,7 +19787,7 @@
         <v>45190</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19849,7 +19849,7 @@
         <v>45982.47819444445</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         <v>45644.61251157407</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         <v>45986.60056712963</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20020,7 +20020,7 @@
         <v>44662.84958333334</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20082,7 +20082,7 @@
         <v>45061</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20144,7 +20144,7 @@
         <v>45880.37949074074</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>45880.37711805556</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>45989.40451388889</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20330,7 +20330,7 @@
         <v>45702.41383101852</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20387,7 +20387,7 @@
         <v>45988.77284722222</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20449,7 +20449,7 @@
         <v>45230.49392361111</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20506,7 +20506,7 @@
         <v>45610.8215625</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20568,7 +20568,7 @@
         <v>46034</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20645,7 +20645,7 @@
         <v>45992.31405092592</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20702,7 +20702,7 @@
         <v>45992.31182870371</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20759,7 +20759,7 @@
         <v>45756.45504629629</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20816,7 +20816,7 @@
         <v>46034.41488425926</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20873,7 +20873,7 @@
         <v>44817</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20935,7 +20935,7 @@
         <v>45995.4909837963</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         <v>45278.60274305556</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21054,7 +21054,7 @@
         <v>45233.41666666666</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21111,7 +21111,7 @@
         <v>46036.43230324074</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21173,7 +21173,7 @@
         <v>45268</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21230,7 +21230,7 @@
         <v>45268</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21287,7 +21287,7 @@
         <v>45070</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21344,7 +21344,7 @@
         <v>44455</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21401,7 +21401,7 @@
         <v>45463.66520833333</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
         <v>46000.50141203704</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21525,7 +21525,7 @@
         <v>46042.36462962963</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21582,7 +21582,7 @@
         <v>46042.37716435185</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21639,7 +21639,7 @@
         <v>46043.55357638889</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21696,7 +21696,7 @@
         <v>45999.52246527778</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21753,7 +21753,7 @@
         <v>45763</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21810,7 +21810,7 @@
         <v>46042.41484953704</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21867,7 +21867,7 @@
         <v>46042.41993055555</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21924,7 +21924,7 @@
         <v>46035</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21981,7 +21981,7 @@
         <v>45469.48282407408</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22058,7 +22058,7 @@
         <v>46042.40212962963</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22115,7 +22115,7 @@
         <v>45170.62489583333</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>46044.5272800926</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22234,7 +22234,7 @@
         <v>45615.78459490741</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22296,7 +22296,7 @@
         <v>46035.54915509259</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22353,7 +22353,7 @@
         <v>46007.43217592593</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22410,7 +22410,7 @@
         <v>45919.38918981481</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22472,7 +22472,7 @@
         <v>46049.80768518519</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22529,7 +22529,7 @@
         <v>46049.81304398148</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22586,7 +22586,7 @@
         <v>46048.58114583333</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22643,7 +22643,7 @@
         <v>45905.54068287037</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22705,7 +22705,7 @@
         <v>45429.29666666667</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22767,7 +22767,7 @@
         <v>46051.47321759259</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22824,7 +22824,7 @@
         <v>45474.73221064815</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22886,7 +22886,7 @@
         <v>45474.73076388889</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22948,7 +22948,7 @@
         <v>46048</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23005,7 +23005,7 @@
         <v>45540</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23067,7 +23067,7 @@
         <v>45086</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23129,7 +23129,7 @@
         <v>45617.3434837963</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23191,7 +23191,7 @@
         <v>46033.23923611111</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23248,7 +23248,7 @@
         <v>45610.82664351852</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23310,7 +23310,7 @@
         <v>45254</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23367,7 +23367,7 @@
         <v>45541</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23429,7 +23429,7 @@
         <v>46056.59987268518</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23486,7 +23486,7 @@
         <v>46050</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23543,7 +23543,7 @@
         <v>46056.6309375</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23600,7 +23600,7 @@
         <v>45932.37429398148</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23657,7 +23657,7 @@
         <v>45933.81800925926</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>45920.37158564815</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23781,7 +23781,7 @@
         <v>45350.46003472222</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23838,7 +23838,7 @@
         <v>44546</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23895,7 +23895,7 @@
         <v>44462</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23957,7 +23957,7 @@
         <v>46044</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24014,7 +24014,7 @@
         <v>44917</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24071,7 +24071,7 @@
         <v>46058.49344907407</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24128,7 +24128,7 @@
         <v>46060.67263888889</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24190,7 +24190,7 @@
         <v>46021</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24247,7 +24247,7 @@
         <v>46020</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24304,7 +24304,7 @@
         <v>46062.49636574074</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         <v>46062.53719907408</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24438,7 +24438,7 @@
         <v>46021.50405092593</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24495,7 +24495,7 @@
         <v>46020</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24552,7 +24552,7 @@
         <v>46021.56877314814</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>46020</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24666,7 +24666,7 @@
         <v>46020</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24723,7 +24723,7 @@
         <v>46063.85685185185</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24785,7 +24785,7 @@
         <v>45644.59017361111</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24847,7 +24847,7 @@
         <v>46061.9450462963</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24904,7 +24904,7 @@
         <v>45104</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24966,7 +24966,7 @@
         <v>46062.539375</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25023,7 +25023,7 @@
         <v>45086</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25085,7 +25085,7 @@
         <v>46063.85922453704</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         <v>46020</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25204,7 +25204,7 @@
         <v>46034</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25261,7 +25261,7 @@
         <v>45940.37288194444</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25323,7 +25323,7 @@
         <v>44917.67582175926</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25380,7 +25380,7 @@
         <v>46055</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25442,7 +25442,7 @@
         <v>46055</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25504,7 +25504,7 @@
         <v>46051</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25561,7 +25561,7 @@
         <v>46035</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25618,7 +25618,7 @@
         <v>45940.36981481482</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25680,7 +25680,7 @@
         <v>46044.55276620371</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25737,7 +25737,7 @@
         <v>46051</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25794,7 +25794,7 @@
         <v>46055</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25856,7 +25856,7 @@
         <v>45763</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25913,7 +25913,7 @@
         <v>46051</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25970,7 +25970,7 @@
         <v>46055</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26047,7 +26047,7 @@
         <v>45267</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26104,7 +26104,7 @@
         <v>46027</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26161,7 +26161,7 @@
         <v>46024</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26218,7 +26218,7 @@
         <v>46051</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26275,7 +26275,7 @@
         <v>46055</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26337,7 +26337,7 @@
         <v>45943.40377314815</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26394,7 +26394,7 @@
         <v>44574</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26456,7 +26456,7 @@
         <v>46032</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26513,7 +26513,7 @@
         <v>45509.60949074074</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26570,7 +26570,7 @@
         <v>46065.90597222222</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26632,7 +26632,7 @@
         <v>46030.44930555556</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26689,7 +26689,7 @@
         <v>45469.51145833333</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26746,7 +26746,7 @@
         <v>46066</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26808,7 +26808,7 @@
         <v>46066</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26870,7 +26870,7 @@
         <v>46062</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26932,7 +26932,7 @@
         <v>46063</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26994,7 +26994,7 @@
         <v>46066</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27056,7 +27056,7 @@
         <v>46033</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27113,7 +27113,7 @@
         <v>46060</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27175,7 +27175,7 @@
         <v>46060</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27237,7 +27237,7 @@
         <v>45743.57695601852</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27294,7 +27294,7 @@
         <v>45296</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27351,7 +27351,7 @@
         <v>44358</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27408,7 +27408,7 @@
         <v>46070.31914351852</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27485,7 +27485,7 @@
         <v>45163.61209490741</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27547,7 +27547,7 @@
         <v>45163.61413194444</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27609,7 +27609,7 @@
         <v>45239</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27671,7 +27671,7 @@
         <v>46063</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27733,7 +27733,7 @@
         <v>46058</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27790,7 +27790,7 @@
         <v>46072.38456018519</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27847,7 +27847,7 @@
         <v>45748.85107638889</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27904,7 +27904,7 @@
         <v>44918.5633912037</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27961,7 +27961,7 @@
         <v>46072.38046296296</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28018,7 +28018,7 @@
         <v>46066</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28075,7 +28075,7 @@
         <v>46071</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28132,7 +28132,7 @@
         <v>45105</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28194,7 +28194,7 @@
         <v>46030</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28251,7 +28251,7 @@
         <v>44306.4405787037</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28308,7 +28308,7 @@
         <v>46066</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28365,7 +28365,7 @@
         <v>46071</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28422,7 +28422,7 @@
         <v>46069</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28479,7 +28479,7 @@
         <v>46031</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28536,7 +28536,7 @@
         <v>46072.37832175926</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28593,7 +28593,7 @@
         <v>46050</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28650,7 +28650,7 @@
         <v>45615.79806712963</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28712,7 +28712,7 @@
         <v>44680.47903935185</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28769,7 +28769,7 @@
         <v>45573.67782407408</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28831,7 +28831,7 @@
         <v>45573.68875</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28893,7 +28893,7 @@
         <v>45551</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28955,7 +28955,7 @@
         <v>45551</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29017,7 +29017,7 @@
         <v>45551</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29079,7 +29079,7 @@
         <v>44575</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29136,7 +29136,7 @@
         <v>45757.71063657408</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29193,7 +29193,7 @@
         <v>44733</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29250,7 +29250,7 @@
         <v>44911.41222222222</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29307,7 +29307,7 @@
         <v>45278</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29364,7 +29364,7 @@
         <v>44495</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29421,7 +29421,7 @@
         <v>44961</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29478,7 +29478,7 @@
         <v>45268</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29535,7 +29535,7 @@
         <v>45590.4999537037</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29597,7 +29597,7 @@
         <v>45252.42115740741</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29654,7 +29654,7 @@
         <v>45771.72665509259</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29711,7 +29711,7 @@
         <v>44509.6580787037</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29768,7 +29768,7 @@
         <v>45773.71663194444</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29830,7 +29830,7 @@
         <v>45358</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29887,7 +29887,7 @@
         <v>45239</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29949,7 +29949,7 @@
         <v>45771.73082175926</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30006,7 +30006,7 @@
         <v>45442.60204861111</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30063,7 +30063,7 @@
         <v>45757</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30120,7 +30120,7 @@
         <v>45541.79369212963</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30182,7 +30182,7 @@
         <v>45771.72193287037</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30239,7 +30239,7 @@
         <v>45478.641875</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30301,7 +30301,7 @@
         <v>45436</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30358,7 +30358,7 @@
         <v>45701.64659722222</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30415,7 +30415,7 @@
         <v>45590.50111111111</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30477,7 +30477,7 @@
         <v>44909.58811342593</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30534,7 +30534,7 @@
         <v>44279.50208333333</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30591,7 +30591,7 @@
         <v>44726</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30648,7 +30648,7 @@
         <v>45194.63086805555</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30705,7 +30705,7 @@
         <v>44450.84762731481</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30762,7 +30762,7 @@
         <v>45173.42707175926</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30824,7 +30824,7 @@
         <v>45055</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30886,7 +30886,7 @@
         <v>44529</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30943,7 +30943,7 @@
         <v>45113.45597222223</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31005,7 +31005,7 @@
         <v>45777.45135416667</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31067,7 +31067,7 @@
         <v>45111.54344907407</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31129,7 +31129,7 @@
         <v>45278.61277777778</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31186,7 +31186,7 @@
         <v>45590</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31243,7 +31243,7 @@
         <v>45187</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31305,7 +31305,7 @@
         <v>45337</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31362,7 +31362,7 @@
         <v>45603.68902777778</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31419,7 +31419,7 @@
         <v>45771</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31476,7 +31476,7 @@
         <v>45462</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31538,7 +31538,7 @@
         <v>45799.64574074074</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31595,7 +31595,7 @@
         <v>45429.38474537037</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31652,7 +31652,7 @@
         <v>45805.51065972223</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31714,7 +31714,7 @@
         <v>45569.48200231481</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31771,7 +31771,7 @@
         <v>45701.53790509259</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31828,7 +31828,7 @@
         <v>45810.45325231482</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>

--- a/Översikt HEDEMORA.xlsx
+++ b/Översikt HEDEMORA.xlsx
@@ -575,7 +575,7 @@
         <v>45996</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>45180</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>45239</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -903,7 +903,7 @@
         <v>45628</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         <v>46033</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>45527.45107638889</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1223,7 +1223,7 @@
         <v>45616.57304398148</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>44902</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>44502</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1526,7 +1526,7 @@
         <v>45887.29802083333</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1619,7 +1619,7 @@
         <v>45919.71271990741</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>45961.32736111111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>45527.44895833333</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>45250</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>45595.49747685185</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>46033</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>45887.30237268518</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         <v>45527.44613425926</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>45527.45292824074</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>44441</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>45897</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         <v>45301</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>46051</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>44495</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>44369</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>44489</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>46051</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
         <v>44455</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>44897</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>44502</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>44579</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>46033</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>44588</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>44883</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3903,7 +3903,7 @@
         <v>44582</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>45429.29493055555</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>45912.36710648148</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>45912.37243055556</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>45252</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>45821.60116898148</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         <v>45664.39991898148</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>45899.35592592593</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>45625</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>45670</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>46037.57337962963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>46050</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>44441</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         <v>46029</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>46033</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>44880.87587962963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         <v>44253</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>44880.87695601852</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>44864</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>45565</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5745,7 +5745,7 @@
         <v>45818.39921296296</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>45889.63289351852</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>45642</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>45917.43056712963</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>45743.68125</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6207,7 +6207,7 @@
         <v>45743.70716435185</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         <v>45767.54942129629</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>45825.66416666667</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6481,7 +6481,7 @@
         <v>45933.82043981482</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6579,7 +6579,7 @@
         <v>45842</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6669,7 +6669,7 @@
         <v>45008</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>45920.3734837963</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>45733</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
         <v>45171</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>44461</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>45899.35854166667</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>46036.43939814815</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>45275.32708333333</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>45610.80650462963</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>46020</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>46059</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>46020</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>46020</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7843,7 +7843,7 @@
         <v>46033</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         <v>45226</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>45615</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>45757.69396990741</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8205,7 +8205,7 @@
         <v>45078</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>44283</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>44523.61842592592</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>44565</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>44783.71745370371</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>44475.35819444444</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>44315.4233912037</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>44462</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8703,7 +8703,7 @@
         <v>44846.33142361111</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>44881.69982638889</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>44466.33798611111</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>44802</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>44868.54824074074</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9003,7 +9003,7 @@
         <v>44698.52960648148</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>44529</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>44284.59565972222</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>44588</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>44868.5756712963</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         <v>44817</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>44442</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>44491.53346064815</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
         <v>44364.83538194445</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>44468</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>44466.44400462963</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>44456</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>44574</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>44299</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>44741.68168981482</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>44462</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>44805</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10012,7 +10012,7 @@
         <v>44720</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>44502</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>44746</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>44393.52391203704</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>44434</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10312,7 +10312,7 @@
         <v>44750.87045138889</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10374,7 +10374,7 @@
         <v>44750.87366898148</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>44523.6131712963</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10498,7 +10498,7 @@
         <v>44859</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10560,7 +10560,7 @@
         <v>44495</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10617,7 +10617,7 @@
         <v>44421.53498842593</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10674,7 +10674,7 @@
         <v>44575.54618055555</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>44945</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>45170</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         <v>44455.77041666667</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>45459.62336805555</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>44628</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         <v>45022</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>44438.71809027778</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>45175</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>44364.83369212963</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>45484.58222222222</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11331,7 +11331,7 @@
         <v>44900.53383101852</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         <v>44532.41442129629</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>45541.78678240741</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>45078.59590277778</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>44917.67262731482</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>45558.52905092593</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         <v>45342.8779050926</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>44956</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>44805.71435185185</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11864,7 +11864,7 @@
         <v>45407.64223379629</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>45070.39284722223</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>45818.4021875</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12045,7 +12045,7 @@
         <v>45818.39755787037</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12107,7 +12107,7 @@
         <v>45818.40069444444</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
         <v>45610.82546296297</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12231,7 +12231,7 @@
         <v>45845</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>45694.57893518519</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>45429</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>45743.59052083334</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>45076.73979166667</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12526,7 +12526,7 @@
         <v>45218.38459490741</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12583,7 +12583,7 @@
         <v>45825.53508101852</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12640,7 +12640,7 @@
         <v>45889.6240625</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12702,7 +12702,7 @@
         <v>45230.50288194444</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12759,7 +12759,7 @@
         <v>45230.53109953704</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12816,7 +12816,7 @@
         <v>45889.62287037037</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>45708.67251157408</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>45099</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>45895.57958333333</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>45895.58449074074</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>45895.64342592593</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>45831.42349537037</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>45827.94671296296</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>45827.94552083333</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>45770.88217592592</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>45770.88462962963</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>44370.90546296296</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13515,7 +13515,7 @@
         <v>45484.57728009259</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>44757.74415509259</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13639,7 +13639,7 @@
         <v>45230.52603009259</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13696,7 +13696,7 @@
         <v>44501</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>45839.58767361111</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13815,7 +13815,7 @@
         <v>45839.58927083333</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13877,7 +13877,7 @@
         <v>45216</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13934,7 +13934,7 @@
         <v>45906.40199074074</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13996,7 +13996,7 @@
         <v>45350.46259259259</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14053,7 +14053,7 @@
         <v>45840</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14115,7 +14115,7 @@
         <v>45910.42417824074</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14172,7 +14172,7 @@
         <v>45840.81065972222</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
         <v>45848</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14291,7 +14291,7 @@
         <v>45852.56914351852</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14348,7 +14348,7 @@
         <v>45918.44587962963</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>44792</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14462,7 +14462,7 @@
         <v>45743.69820601852</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14524,7 +14524,7 @@
         <v>44438.72253472222</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14586,7 +14586,7 @@
         <v>45743.70199074074</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14648,7 +14648,7 @@
         <v>45527.45431712963</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>45924.27231481481</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>45924.26582175926</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14824,7 +14824,7 @@
         <v>45924.27704861111</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14881,7 +14881,7 @@
         <v>45866.43974537037</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14938,7 +14938,7 @@
         <v>45866.55335648148</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         <v>45925.38450231482</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15052,7 +15052,7 @@
         <v>45866.58664351852</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>45924.37988425926</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15171,7 +15171,7 @@
         <v>45867.45057870371</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15228,7 +15228,7 @@
         <v>45105</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>45873.34642361111</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>45773.71568287037</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>45253.5053587963</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>45773.71921296296</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>45316</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15585,7 +15585,7 @@
         <v>45484.5799537037</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15647,7 +15647,7 @@
         <v>45932.71114583333</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>45933.53237268519</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>45784</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>45770</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>45932.7075</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>45230</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>45784</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16056,7 +16056,7 @@
         <v>45260.64891203704</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16113,7 +16113,7 @@
         <v>44348.64942129629</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>45630.77605324074</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>45940.69508101852</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>45943.40546296296</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>45943.40084490741</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>45943.53317129629</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>45943.54636574074</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>45943</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>45534.61327546297</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>45205.53241898148</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>45287</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16775,7 +16775,7 @@
         <v>45951.40246527778</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16832,7 +16832,7 @@
         <v>45951.54824074074</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16889,7 +16889,7 @@
         <v>45623.48604166666</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         <v>45953.67157407408</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17008,7 +17008,7 @@
         <v>45953</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>44914.37917824074</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>45952</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>45953.65537037037</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>45953.67032407408</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17308,7 +17308,7 @@
         <v>45957.39364583333</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17365,7 +17365,7 @@
         <v>45469.50783564815</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17422,7 +17422,7 @@
         <v>45957.49408564815</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17479,7 +17479,7 @@
         <v>45958.35328703704</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17541,7 +17541,7 @@
         <v>45566.82304398148</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17603,7 +17603,7 @@
         <v>45566.82385416667</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17665,7 +17665,7 @@
         <v>45958.35527777778</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17727,7 +17727,7 @@
         <v>45505.37086805556</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17784,7 +17784,7 @@
         <v>45958.35663194444</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17846,7 +17846,7 @@
         <v>45538.56925925926</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>45960.3875</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>45484.69837962963</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>45963.74130787037</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>44783.68931712963</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>45729.39300925926</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>45840.81216435185</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18255,7 +18255,7 @@
         <v>45792.37162037037</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18317,7 +18317,7 @@
         <v>45784.37449074074</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         <v>45436</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18436,7 +18436,7 @@
         <v>45966.67506944444</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18493,7 +18493,7 @@
         <v>45966.67681712963</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18550,7 +18550,7 @@
         <v>45933</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18607,7 +18607,7 @@
         <v>45968.46832175926</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18664,7 +18664,7 @@
         <v>45840</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18726,7 +18726,7 @@
         <v>45889.62181712963</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18788,7 +18788,7 @@
         <v>45626.41185185185</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18850,7 +18850,7 @@
         <v>45973.41158564815</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18907,7 +18907,7 @@
         <v>45463.66436342592</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18969,7 +18969,7 @@
         <v>45743.5745949074</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         <v>45971.78122685185</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19083,7 +19083,7 @@
         <v>45971.79564814815</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19140,7 +19140,7 @@
         <v>45729.38878472222</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19197,7 +19197,7 @@
         <v>45973.65067129629</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19259,7 +19259,7 @@
         <v>45974.70207175926</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19316,7 +19316,7 @@
         <v>45583.58040509259</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19373,7 +19373,7 @@
         <v>45975.7162962963</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19430,7 +19430,7 @@
         <v>45576.51962962963</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19487,7 +19487,7 @@
         <v>45441.57538194444</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19544,7 +19544,7 @@
         <v>45975.78238425926</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19601,7 +19601,7 @@
         <v>45980.70671296296</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19663,7 +19663,7 @@
         <v>45172</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19725,7 +19725,7 @@
         <v>44472.54035879629</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19787,7 +19787,7 @@
         <v>45190</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19849,7 +19849,7 @@
         <v>45982.47819444445</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         <v>45644.61251157407</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         <v>45986.60056712963</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20020,7 +20020,7 @@
         <v>44662.84958333334</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20082,7 +20082,7 @@
         <v>45061</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20144,7 +20144,7 @@
         <v>45880.37949074074</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>45880.37711805556</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>45989.40451388889</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20330,7 +20330,7 @@
         <v>45702.41383101852</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20387,7 +20387,7 @@
         <v>45988.77284722222</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20449,7 +20449,7 @@
         <v>45230.49392361111</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20506,7 +20506,7 @@
         <v>45610.8215625</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20568,7 +20568,7 @@
         <v>46034</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20645,7 +20645,7 @@
         <v>45992.31405092592</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20702,7 +20702,7 @@
         <v>45992.31182870371</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20759,7 +20759,7 @@
         <v>45756.45504629629</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20816,7 +20816,7 @@
         <v>46034.41488425926</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20873,7 +20873,7 @@
         <v>44817</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20935,7 +20935,7 @@
         <v>45995.4909837963</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         <v>45278.60274305556</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21054,7 +21054,7 @@
         <v>45233.41666666666</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21111,7 +21111,7 @@
         <v>46036.43230324074</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21173,7 +21173,7 @@
         <v>45268</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21230,7 +21230,7 @@
         <v>45268</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21287,7 +21287,7 @@
         <v>45070</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21344,7 +21344,7 @@
         <v>44455</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21401,7 +21401,7 @@
         <v>45463.66520833333</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
         <v>46000.50141203704</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21525,7 +21525,7 @@
         <v>46042.36462962963</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21582,7 +21582,7 @@
         <v>46042.37716435185</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21639,7 +21639,7 @@
         <v>46043.55357638889</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21696,7 +21696,7 @@
         <v>45999.52246527778</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21753,7 +21753,7 @@
         <v>45763</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21810,7 +21810,7 @@
         <v>46042.41484953704</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21867,7 +21867,7 @@
         <v>46042.41993055555</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21924,7 +21924,7 @@
         <v>46035</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21981,7 +21981,7 @@
         <v>45469.48282407408</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22058,7 +22058,7 @@
         <v>46042.40212962963</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22115,7 +22115,7 @@
         <v>45170.62489583333</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>46044.5272800926</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22234,7 +22234,7 @@
         <v>45615.78459490741</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22296,7 +22296,7 @@
         <v>46035.54915509259</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22353,7 +22353,7 @@
         <v>46007.43217592593</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22410,7 +22410,7 @@
         <v>45919.38918981481</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22472,7 +22472,7 @@
         <v>46049.80768518519</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22529,7 +22529,7 @@
         <v>46049.81304398148</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22586,7 +22586,7 @@
         <v>46048.58114583333</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22643,7 +22643,7 @@
         <v>45905.54068287037</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22705,7 +22705,7 @@
         <v>45429.29666666667</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22767,7 +22767,7 @@
         <v>46051.47321759259</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22824,7 +22824,7 @@
         <v>45474.73221064815</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22886,7 +22886,7 @@
         <v>45474.73076388889</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22948,7 +22948,7 @@
         <v>46048</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23005,7 +23005,7 @@
         <v>45540</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23067,7 +23067,7 @@
         <v>45086</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23129,7 +23129,7 @@
         <v>45617.3434837963</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23191,7 +23191,7 @@
         <v>46033.23923611111</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23248,7 +23248,7 @@
         <v>45610.82664351852</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23310,7 +23310,7 @@
         <v>45254</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23367,7 +23367,7 @@
         <v>45541</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23429,7 +23429,7 @@
         <v>46056.59987268518</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23486,7 +23486,7 @@
         <v>46050</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23543,7 +23543,7 @@
         <v>46056.6309375</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23600,7 +23600,7 @@
         <v>45932.37429398148</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23657,7 +23657,7 @@
         <v>45933.81800925926</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>45920.37158564815</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23781,7 +23781,7 @@
         <v>45350.46003472222</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23838,7 +23838,7 @@
         <v>44546</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23895,7 +23895,7 @@
         <v>44462</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23957,7 +23957,7 @@
         <v>46044</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24014,7 +24014,7 @@
         <v>44917</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24071,7 +24071,7 @@
         <v>46058.49344907407</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24128,7 +24128,7 @@
         <v>46060.67263888889</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24190,7 +24190,7 @@
         <v>46021</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24247,7 +24247,7 @@
         <v>46020</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24304,7 +24304,7 @@
         <v>46062.49636574074</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         <v>46062.53719907408</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24438,7 +24438,7 @@
         <v>46021.50405092593</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24495,7 +24495,7 @@
         <v>46020</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24552,7 +24552,7 @@
         <v>46021.56877314814</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>46020</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24666,7 +24666,7 @@
         <v>46020</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24723,7 +24723,7 @@
         <v>46063.85685185185</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24785,7 +24785,7 @@
         <v>45644.59017361111</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24847,7 +24847,7 @@
         <v>46061.9450462963</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24904,7 +24904,7 @@
         <v>45104</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24966,7 +24966,7 @@
         <v>46062.539375</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25023,7 +25023,7 @@
         <v>45086</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25085,7 +25085,7 @@
         <v>46063.85922453704</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         <v>46020</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25204,7 +25204,7 @@
         <v>46034</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25261,7 +25261,7 @@
         <v>45940.37288194444</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25323,7 +25323,7 @@
         <v>44917.67582175926</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25380,7 +25380,7 @@
         <v>46055</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25442,7 +25442,7 @@
         <v>46055</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25504,7 +25504,7 @@
         <v>46051</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25561,7 +25561,7 @@
         <v>46035</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25618,7 +25618,7 @@
         <v>45940.36981481482</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25680,7 +25680,7 @@
         <v>46044.55276620371</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25737,7 +25737,7 @@
         <v>46051</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25794,7 +25794,7 @@
         <v>46055</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25856,7 +25856,7 @@
         <v>45763</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25913,7 +25913,7 @@
         <v>46051</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25970,7 +25970,7 @@
         <v>46055</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26047,7 +26047,7 @@
         <v>45267</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26104,7 +26104,7 @@
         <v>46027</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26161,7 +26161,7 @@
         <v>46024</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26218,7 +26218,7 @@
         <v>46051</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26275,7 +26275,7 @@
         <v>46055</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26337,7 +26337,7 @@
         <v>45943.40377314815</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26394,7 +26394,7 @@
         <v>44574</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26456,7 +26456,7 @@
         <v>46032</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26513,7 +26513,7 @@
         <v>45509.60949074074</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26570,7 +26570,7 @@
         <v>46065.90597222222</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26632,7 +26632,7 @@
         <v>46030.44930555556</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26689,7 +26689,7 @@
         <v>45469.51145833333</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26746,7 +26746,7 @@
         <v>46066</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26808,7 +26808,7 @@
         <v>46066</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26870,7 +26870,7 @@
         <v>46062</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26932,7 +26932,7 @@
         <v>46063</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26994,7 +26994,7 @@
         <v>46066</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27056,7 +27056,7 @@
         <v>46033</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27113,7 +27113,7 @@
         <v>46060</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27175,7 +27175,7 @@
         <v>46060</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27237,7 +27237,7 @@
         <v>45743.57695601852</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27294,7 +27294,7 @@
         <v>45296</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27351,7 +27351,7 @@
         <v>44358</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27408,7 +27408,7 @@
         <v>46070.31914351852</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27485,7 +27485,7 @@
         <v>45163.61209490741</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27547,7 +27547,7 @@
         <v>45163.61413194444</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27609,7 +27609,7 @@
         <v>45239</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27671,7 +27671,7 @@
         <v>46063</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27733,7 +27733,7 @@
         <v>46058</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27790,7 +27790,7 @@
         <v>46072.38456018519</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27847,7 +27847,7 @@
         <v>45748.85107638889</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27904,7 +27904,7 @@
         <v>44918.5633912037</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27961,7 +27961,7 @@
         <v>46072.38046296296</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28018,7 +28018,7 @@
         <v>46066</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28075,7 +28075,7 @@
         <v>46071</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28132,7 +28132,7 @@
         <v>45105</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28194,7 +28194,7 @@
         <v>46030</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28251,7 +28251,7 @@
         <v>44306.4405787037</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28308,7 +28308,7 @@
         <v>46066</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28365,7 +28365,7 @@
         <v>46071</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28422,7 +28422,7 @@
         <v>46069</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28479,7 +28479,7 @@
         <v>46031</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28536,7 +28536,7 @@
         <v>46072.37832175926</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28593,7 +28593,7 @@
         <v>46050</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28650,7 +28650,7 @@
         <v>45615.79806712963</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28712,7 +28712,7 @@
         <v>44680.47903935185</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28769,7 +28769,7 @@
         <v>45573.67782407408</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28831,7 +28831,7 @@
         <v>45573.68875</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28893,7 +28893,7 @@
         <v>45551</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28955,7 +28955,7 @@
         <v>45551</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29017,7 +29017,7 @@
         <v>45551</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29079,7 +29079,7 @@
         <v>44575</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29136,7 +29136,7 @@
         <v>45757.71063657408</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29193,7 +29193,7 @@
         <v>44733</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29250,7 +29250,7 @@
         <v>44911.41222222222</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29307,7 +29307,7 @@
         <v>45278</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29364,7 +29364,7 @@
         <v>44495</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29421,7 +29421,7 @@
         <v>44961</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29478,7 +29478,7 @@
         <v>45268</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29535,7 +29535,7 @@
         <v>45590.4999537037</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29597,7 +29597,7 @@
         <v>45252.42115740741</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29654,7 +29654,7 @@
         <v>45771.72665509259</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29711,7 +29711,7 @@
         <v>44509.6580787037</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29768,7 +29768,7 @@
         <v>45773.71663194444</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29830,7 +29830,7 @@
         <v>45358</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29887,7 +29887,7 @@
         <v>45239</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29949,7 +29949,7 @@
         <v>45771.73082175926</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30006,7 +30006,7 @@
         <v>45442.60204861111</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30063,7 +30063,7 @@
         <v>45757</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30120,7 +30120,7 @@
         <v>45541.79369212963</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30182,7 +30182,7 @@
         <v>45771.72193287037</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30239,7 +30239,7 @@
         <v>45478.641875</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30301,7 +30301,7 @@
         <v>45436</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30358,7 +30358,7 @@
         <v>45701.64659722222</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30415,7 +30415,7 @@
         <v>45590.50111111111</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30477,7 +30477,7 @@
         <v>44909.58811342593</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30534,7 +30534,7 @@
         <v>44279.50208333333</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30591,7 +30591,7 @@
         <v>44726</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30648,7 +30648,7 @@
         <v>45194.63086805555</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30705,7 +30705,7 @@
         <v>44450.84762731481</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30762,7 +30762,7 @@
         <v>45173.42707175926</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30824,7 +30824,7 @@
         <v>45055</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30886,7 +30886,7 @@
         <v>44529</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30943,7 +30943,7 @@
         <v>45113.45597222223</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31005,7 +31005,7 @@
         <v>45777.45135416667</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31067,7 +31067,7 @@
         <v>45111.54344907407</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31129,7 +31129,7 @@
         <v>45278.61277777778</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31186,7 +31186,7 @@
         <v>45590</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31243,7 +31243,7 @@
         <v>45187</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31305,7 +31305,7 @@
         <v>45337</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31362,7 +31362,7 @@
         <v>45603.68902777778</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31419,7 +31419,7 @@
         <v>45771</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31476,7 +31476,7 @@
         <v>45462</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31538,7 +31538,7 @@
         <v>45799.64574074074</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31595,7 +31595,7 @@
         <v>45429.38474537037</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31652,7 +31652,7 @@
         <v>45805.51065972223</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31714,7 +31714,7 @@
         <v>45569.48200231481</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31771,7 +31771,7 @@
         <v>45701.53790509259</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31828,7 +31828,7 @@
         <v>45810.45325231482</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
